--- a/xtehr/mappable/Procedure.xlsx
+++ b/xtehr/mappable/Procedure.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,12 +512,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C.16.1 - Identifier</t>
+          <t>Identifier for the procedure</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Procedure identifier</t>
+          <t>Identifier for the procedure</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -535,32 +535,32 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EHDSProcedure.description</t>
+          <t>EHDSProcedure.subject</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EHDSProcedure.description</t>
+          <t>EHDSProcedure.subject</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C.16.2 - Description</t>
+          <t>On whom the procedure was performed.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Procedure specification in string form</t>
+          <t>On whom the procedure was performed.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>EHDSPatient</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0..1</t>
+          <t>1..1</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C.16.3 - Code</t>
+          <t>Code identifying the procedure</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C.16.4 - Date</t>
+          <t>Date and time of the procedure or interval of its performance</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -648,17 +648,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C.16.5 - Performer</t>
+          <t>An actor who performed the procedure</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>An actor who or what performed the procedure</t>
+          <t>An actor who performed the procedure</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>EHDSHealthProfessional</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -671,17 +671,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>EHDSProcedure.anatomicLocation</t>
+          <t>EHDSProcedure.bodySite</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>EHDSProcedure.anatomicLocation</t>
+          <t>EHDSProcedure.bodySite</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C.16.6 - Anatomic location</t>
+          <t>Anatomic location and laterality where the procedure was performed. This is the target site.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CodeableConcept</t>
+          <t>EHDSBodyStructure</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -699,26 +699,22 @@
           <t>0..*</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>{'strength': 'preferred', 'description': 'SNOMED CT, ICD-O-3'}</t>
-        </is>
-      </c>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>EHDSProcedure.reason</t>
+          <t>EHDSProcedure.reason[x]</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>EHDSProcedure.reason</t>
+          <t>EHDSProcedure.reason[x]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C.16.7 - Reason</t>
+          <t>The reason why the procedure was performed.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -728,7 +724,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>EHDSCondition</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -751,7 +747,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C.16.8 - Outcome</t>
+          <t>The outcome of the procedure - did it resolve the reasons for the procedure being performed?</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -788,7 +784,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C.16.9 - Complication</t>
+          <t>Any complications that occurred during the procedure, or in the immediate post-performance period. These are generally tracked separately from the procedure description, which will typically describe the procedure itself rather than any 'post procedure' issues.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -825,7 +821,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C.16.10 - Device used</t>
+          <t>Device used to perform the procedure</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -858,17 +854,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C.16.11 - Focal device</t>
+          <t>Device(s) that is/are implanted, removed, or otherwise manipulated (calibration, battery replacement, fitting a prosthesis, attaching a wound-vac, etc.) as a focal portion of the Procedure.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Device or devices that is/are implanted, removed, or otherwise manipulated (calibration, battery replacement, fitting a prosthesis, attaching a wound-vac, etc.) as a focal portion of the Procedure.</t>
+          <t>Device(s) that is/are implanted, removed, or otherwise manipulated (calibration, battery replacement, fitting a prosthesis, attaching a wound-vac, etc.) as a focal portion of the Procedure.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>EHDSDevice</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -891,12 +887,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C.16.12 - Location</t>
+          <t>Location where the procedure was performed</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Location where the procedure had been performed</t>
+          <t>Location where the procedure was performed</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -924,7 +920,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C.16.13 - Note</t>
+          <t>Additional information about the procedure</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -943,39 +939,6 @@
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>EHDSProcedure.subject</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>EHDSProcedure.subject</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>C.16.14 - Patient</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>On whom or on what the procedure was performed. This is usually an individual human, but can also be performed on animals, groups of humans or animals, organizations or practitioners (for licensing), locations or devices (for safety inspections or regulatory authorizations). If the actual focus of the procedure is different from the subject, the focus element specifies the actual focus of the procedure.</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1..1</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
